--- a/Dati-7.xlsx
+++ b/Dati-7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Google Drive\Corsi\Anno 3 2020-2021\Corsi 1 Semestre\Laboratorio di Fisica 3\Laboratorio\Esperienza 7-Spettroscopia\Definitiva\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C15822-FF0B-400B-A927-0684D658FA2A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D266970-C332-4A8F-B55B-2E790D073509}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="13665" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,9 +42,6 @@
     <t>Yellow</t>
   </si>
   <si>
-    <t xml:space="preserve">Green </t>
-  </si>
-  <si>
     <t>Blue</t>
   </si>
   <si>
@@ -52,6 +49,9 @@
   </si>
   <si>
     <t>SiPD</t>
+  </si>
+  <si>
+    <t>Green</t>
   </si>
 </sst>
 </file>
@@ -370,14 +370,14 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11:K12"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -386,13 +386,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
       <c r="F1" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
